--- a/ESG_E.xlsx
+++ b/ESG_E.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ed9aa1d7d8492529/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0D7F957-C632-488E-9C78-5DE16575CE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{B0D7F957-C632-488E-9C78-5DE16575CE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF780F0A-9681-433C-ABF8-FA4D119B5ECB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0647B4A4-2109-4A0D-A697-F2C4AE883D89}"/>
+    <workbookView xWindow="2688" yWindow="1164" windowWidth="11784" windowHeight="11796" xr2:uid="{0647B4A4-2109-4A0D-A697-F2C4AE883D89}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -776,18 +776,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F7CC8D3-9233-4884-A6A8-AF0CAB6A5B12}">
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -807,28 +807,25 @@
         <v>5</v>
       </c>
       <c r="G1" s="1">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="H1" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="I1" s="1">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="J1" s="1">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="K1" s="1">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="L1" s="1">
-        <v>2016</v>
-      </c>
-      <c r="M1" s="1">
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -848,28 +845,25 @@
         <v>11</v>
       </c>
       <c r="G2">
-        <v>5.7029940000000003</v>
+        <v>5.3614090000000001</v>
       </c>
       <c r="H2">
-        <v>5.3614090000000001</v>
+        <v>5.2855410000000003</v>
       </c>
       <c r="I2">
-        <v>5.2855410000000003</v>
+        <v>5.3304539999999996</v>
       </c>
       <c r="J2">
-        <v>5.3304539999999996</v>
+        <v>6.1435589999999998</v>
       </c>
       <c r="K2">
-        <v>6.1435589999999998</v>
+        <v>5.8742900000000002</v>
       </c>
       <c r="L2">
-        <v>5.8742900000000002</v>
-      </c>
-      <c r="M2">
         <v>5.6876540000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -889,28 +883,25 @@
         <v>14</v>
       </c>
       <c r="G3">
-        <v>3.5987809999999998</v>
+        <v>3.2363559999999998</v>
       </c>
       <c r="H3">
-        <v>3.2363559999999998</v>
+        <v>3.4385680000000001</v>
       </c>
       <c r="I3">
-        <v>3.4385680000000001</v>
+        <v>3.4452699999999998</v>
       </c>
       <c r="J3">
-        <v>3.4452699999999998</v>
+        <v>2.6072709999999999</v>
       </c>
       <c r="K3">
-        <v>2.6072709999999999</v>
+        <v>2.593375</v>
       </c>
       <c r="L3">
-        <v>2.593375</v>
-      </c>
-      <c r="M3">
         <v>2.7793869999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -947,11 +938,8 @@
       <c r="L4">
         <v>3</v>
       </c>
-      <c r="M4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -971,28 +959,25 @@
         <v>20</v>
       </c>
       <c r="G5">
-        <v>6.1199399999999997</v>
+        <v>6.747077</v>
       </c>
       <c r="H5">
-        <v>6.747077</v>
+        <v>6.7784250000000004</v>
       </c>
       <c r="I5">
-        <v>6.7784250000000004</v>
+        <v>8.1428989999999999</v>
       </c>
       <c r="J5">
-        <v>8.1428989999999999</v>
+        <v>8.4015850000000007</v>
       </c>
       <c r="K5">
-        <v>8.4015850000000007</v>
+        <v>8.2707949999999997</v>
       </c>
       <c r="L5">
-        <v>8.2707949999999997</v>
-      </c>
-      <c r="M5">
         <v>8.3168760000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1012,28 +997,25 @@
         <v>11</v>
       </c>
       <c r="G6">
-        <v>6.2799480000000001</v>
+        <v>6.1504310000000002</v>
       </c>
       <c r="H6">
-        <v>6.1504310000000002</v>
+        <v>6.1113030000000004</v>
       </c>
       <c r="I6">
-        <v>6.1113030000000004</v>
+        <v>6.1030189999999997</v>
       </c>
       <c r="J6">
-        <v>6.1030189999999997</v>
+        <v>5.8919629999999996</v>
       </c>
       <c r="K6">
-        <v>5.8919629999999996</v>
+        <v>5.9059530000000002</v>
       </c>
       <c r="L6">
-        <v>5.9059530000000002</v>
-      </c>
-      <c r="M6">
         <v>6.0913269999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1053,13 +1035,13 @@
         <v>25</v>
       </c>
       <c r="G7">
-        <v>1.6432059999999999</v>
+        <v>1.672912</v>
       </c>
       <c r="H7">
-        <v>1.672912</v>
+        <v>0.758907</v>
       </c>
       <c r="I7">
-        <v>0.758907</v>
+        <v>0.27553100000000003</v>
       </c>
       <c r="J7">
         <v>0.27553100000000003</v>
@@ -1068,13 +1050,10 @@
         <v>0.27553100000000003</v>
       </c>
       <c r="L7">
-        <v>0.27553100000000003</v>
-      </c>
-      <c r="M7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1094,28 +1073,25 @@
         <v>11</v>
       </c>
       <c r="G8">
-        <v>4.8589180000000001</v>
+        <v>3.9225850000000002</v>
       </c>
       <c r="H8">
-        <v>3.9225850000000002</v>
+        <v>3.8311130000000002</v>
       </c>
       <c r="I8">
-        <v>3.8311130000000002</v>
+        <v>3.9432809999999998</v>
       </c>
       <c r="J8">
-        <v>3.9432809999999998</v>
+        <v>3.8039269999999998</v>
       </c>
       <c r="K8">
-        <v>3.8039269999999998</v>
+        <v>3.8352080000000002</v>
       </c>
       <c r="L8">
-        <v>3.8352080000000002</v>
-      </c>
-      <c r="M8">
         <v>3.7211110000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1135,28 +1111,25 @@
         <v>30</v>
       </c>
       <c r="G9">
-        <v>1.545131</v>
+        <v>1.4908170000000001</v>
       </c>
       <c r="H9">
-        <v>1.4908170000000001</v>
+        <v>1.39822</v>
       </c>
       <c r="I9">
-        <v>1.39822</v>
+        <v>2.2202829999999998</v>
       </c>
       <c r="J9">
-        <v>2.2202829999999998</v>
+        <v>2.1306210000000001</v>
       </c>
       <c r="K9">
-        <v>2.1306210000000001</v>
+        <v>2.1947999999999999</v>
       </c>
       <c r="L9">
-        <v>2.1947999999999999</v>
-      </c>
-      <c r="M9">
         <v>2.3239700000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1176,28 +1149,25 @@
         <v>14</v>
       </c>
       <c r="G10">
-        <v>1.6697280000000001</v>
+        <v>1.6609780000000001</v>
       </c>
       <c r="H10">
-        <v>1.6609780000000001</v>
+        <v>2.5422319999999998</v>
       </c>
       <c r="I10">
-        <v>2.5422319999999998</v>
+        <v>3.8843369999999999</v>
       </c>
       <c r="J10">
-        <v>3.8843369999999999</v>
+        <v>4.1077279999999998</v>
       </c>
       <c r="K10">
-        <v>4.1077279999999998</v>
+        <v>4.0565759999999997</v>
       </c>
       <c r="L10">
-        <v>4.0565759999999997</v>
-      </c>
-      <c r="M10">
         <v>4.1054139999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -1217,7 +1187,7 @@
         <v>35</v>
       </c>
       <c r="G11">
-        <v>2.4641660000000001</v>
+        <v>0.42900300000000002</v>
       </c>
       <c r="H11">
         <v>0.42900300000000002</v>
@@ -1234,11 +1204,8 @@
       <c r="L11">
         <v>0.42900300000000002</v>
       </c>
-      <c r="M11">
-        <v>0.42900300000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -1258,7 +1225,7 @@
         <v>38</v>
       </c>
       <c r="G12">
-        <v>2.2573249999999998</v>
+        <v>0.592109</v>
       </c>
       <c r="H12">
         <v>0.592109</v>
@@ -1275,11 +1242,8 @@
       <c r="L12">
         <v>0.592109</v>
       </c>
-      <c r="M12">
-        <v>0.592109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -1299,28 +1263,25 @@
         <v>41</v>
       </c>
       <c r="G13">
-        <v>2.79853</v>
+        <v>2.3190409999999999</v>
       </c>
       <c r="H13">
-        <v>2.3190409999999999</v>
+        <v>2.137432</v>
       </c>
       <c r="I13">
-        <v>2.137432</v>
+        <v>2.2024330000000001</v>
       </c>
       <c r="J13">
-        <v>2.2024330000000001</v>
+        <v>1.894525</v>
       </c>
       <c r="K13">
-        <v>1.894525</v>
+        <v>2.4172739999999999</v>
       </c>
       <c r="L13">
-        <v>2.4172739999999999</v>
-      </c>
-      <c r="M13">
         <v>2.7444169999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -1340,28 +1301,25 @@
         <v>44</v>
       </c>
       <c r="G14">
-        <v>5.2467059999999996</v>
+        <v>3.5978349999999999</v>
       </c>
       <c r="H14">
-        <v>3.5978349999999999</v>
+        <v>3.8216800000000002</v>
       </c>
       <c r="I14">
-        <v>3.8216800000000002</v>
+        <v>3.7639619999999998</v>
       </c>
       <c r="J14">
-        <v>3.7639619999999998</v>
+        <v>3.9836469999999999</v>
       </c>
       <c r="K14">
-        <v>3.9836469999999999</v>
+        <v>4.1560009999999998</v>
       </c>
       <c r="L14">
-        <v>4.1560009999999998</v>
-      </c>
-      <c r="M14">
         <v>4.2216009999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -1381,28 +1339,25 @@
         <v>47</v>
       </c>
       <c r="G15">
-        <v>2.2312460000000001</v>
+        <v>2.2829989999999998</v>
       </c>
       <c r="H15">
-        <v>2.2829989999999998</v>
+        <v>1.962823</v>
       </c>
       <c r="I15">
-        <v>1.962823</v>
+        <v>1.9736739999999999</v>
       </c>
       <c r="J15">
-        <v>1.9736739999999999</v>
+        <v>1.9845969999999999</v>
       </c>
       <c r="K15">
-        <v>1.9845969999999999</v>
+        <v>1.997071</v>
       </c>
       <c r="L15">
-        <v>1.997071</v>
-      </c>
-      <c r="M15">
         <v>2.0010650000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -1428,7 +1383,7 @@
         <v>1.5</v>
       </c>
       <c r="I16">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1439,11 +1394,8 @@
       <c r="L16">
         <v>0</v>
       </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -1463,28 +1415,25 @@
         <v>53</v>
       </c>
       <c r="G17">
-        <v>1.872784</v>
+        <v>1.8808830000000001</v>
       </c>
       <c r="H17">
-        <v>1.8808830000000001</v>
+        <v>1.7401260000000001</v>
       </c>
       <c r="I17">
-        <v>1.7401260000000001</v>
+        <v>1.430525</v>
       </c>
       <c r="J17">
-        <v>1.430525</v>
+        <v>1.929719</v>
       </c>
       <c r="K17">
-        <v>1.929719</v>
+        <v>1.9121870000000001</v>
       </c>
       <c r="L17">
-        <v>1.9121870000000001</v>
-      </c>
-      <c r="M17">
         <v>1.9429209999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -1504,13 +1453,13 @@
         <v>56</v>
       </c>
       <c r="G18">
-        <v>0.24059</v>
+        <v>0.13966700000000001</v>
       </c>
       <c r="H18">
         <v>0.13966700000000001</v>
       </c>
       <c r="I18">
-        <v>0.13966700000000001</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1521,11 +1470,8 @@
       <c r="L18">
         <v>0</v>
       </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -1545,16 +1491,16 @@
         <v>25</v>
       </c>
       <c r="G19">
-        <v>1.059515</v>
+        <v>0.25533299999999998</v>
       </c>
       <c r="H19">
         <v>0.25533299999999998</v>
       </c>
       <c r="I19">
-        <v>0.25533299999999998</v>
+        <v>6.0781000000000002E-2</v>
       </c>
       <c r="J19">
-        <v>6.0781000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1562,11 +1508,8 @@
       <c r="L19">
         <v>0</v>
       </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -1586,28 +1529,25 @@
         <v>61</v>
       </c>
       <c r="G20">
-        <v>1.528535</v>
+        <v>1.390018</v>
       </c>
       <c r="H20">
-        <v>1.390018</v>
+        <v>1.363059</v>
       </c>
       <c r="I20">
-        <v>1.363059</v>
+        <v>1.6340490000000001</v>
       </c>
       <c r="J20">
-        <v>1.6340490000000001</v>
+        <v>1.6705019999999999</v>
       </c>
       <c r="K20">
-        <v>1.6705019999999999</v>
+        <v>1.426302</v>
       </c>
       <c r="L20">
-        <v>1.426302</v>
-      </c>
-      <c r="M20">
         <v>1.306068</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>62</v>
       </c>
@@ -1627,25 +1567,22 @@
         <v>64</v>
       </c>
       <c r="G21">
-        <v>4.5628640000000003</v>
+        <v>4.203551</v>
       </c>
       <c r="H21">
-        <v>4.203551</v>
+        <v>3.9336340000000001</v>
       </c>
       <c r="I21">
-        <v>3.9336340000000001</v>
+        <v>3.9161929999999998</v>
       </c>
       <c r="J21">
-        <v>3.9161929999999998</v>
+        <v>4.0150769999999998</v>
       </c>
       <c r="K21">
-        <v>4.0150769999999998</v>
-      </c>
-      <c r="L21">
         <v>4.4207609999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>65</v>
       </c>
@@ -1682,11 +1619,8 @@
       <c r="L22">
         <v>4.9761E-2</v>
       </c>
-      <c r="M22">
-        <v>4.9761E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>67</v>
       </c>
@@ -1706,28 +1640,25 @@
         <v>69</v>
       </c>
       <c r="G23">
-        <v>5.2084130000000002</v>
+        <v>5.2538349999999996</v>
       </c>
       <c r="H23">
-        <v>5.2538349999999996</v>
+        <v>5.2297849999999997</v>
       </c>
       <c r="I23">
-        <v>5.2297849999999997</v>
+        <v>5.2317590000000003</v>
       </c>
       <c r="J23">
-        <v>5.2317590000000003</v>
+        <v>4.2563839999999997</v>
       </c>
       <c r="K23">
-        <v>4.2563839999999997</v>
+        <v>3.3220320000000001</v>
       </c>
       <c r="L23">
-        <v>3.3220320000000001</v>
-      </c>
-      <c r="M23">
         <v>3.3076629999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -1747,28 +1678,25 @@
         <v>53</v>
       </c>
       <c r="G24">
-        <v>1.0508059999999999</v>
+        <v>1.0533410000000001</v>
       </c>
       <c r="H24">
-        <v>1.0533410000000001</v>
+        <v>1.060832</v>
       </c>
       <c r="I24">
-        <v>1.060832</v>
+        <v>1.0251269999999999</v>
       </c>
       <c r="J24">
-        <v>1.0251269999999999</v>
+        <v>1.0328470000000001</v>
       </c>
       <c r="K24">
-        <v>1.0328470000000001</v>
+        <v>0.927342</v>
       </c>
       <c r="L24">
-        <v>0.927342</v>
-      </c>
-      <c r="M24">
         <v>0.27859</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>72</v>
       </c>
@@ -1788,28 +1716,25 @@
         <v>53</v>
       </c>
       <c r="G25">
-        <v>1.2614300000000001</v>
+        <v>1.2755890000000001</v>
       </c>
       <c r="H25">
-        <v>1.2755890000000001</v>
+        <v>1.351191</v>
       </c>
       <c r="I25">
-        <v>1.351191</v>
+        <v>1.1914290000000001</v>
       </c>
       <c r="J25">
-        <v>1.1914290000000001</v>
+        <v>1.057688</v>
       </c>
       <c r="K25">
-        <v>1.057688</v>
+        <v>0.27859</v>
       </c>
       <c r="L25">
         <v>0.27859</v>
       </c>
-      <c r="M25">
-        <v>0.27859</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>74</v>
       </c>
@@ -1829,28 +1754,25 @@
         <v>30</v>
       </c>
       <c r="G26">
-        <v>5.5147310000000003</v>
+        <v>4.9722150000000003</v>
       </c>
       <c r="H26">
-        <v>4.9722150000000003</v>
+        <v>5.66974</v>
       </c>
       <c r="I26">
-        <v>5.66974</v>
+        <v>6.1469589999999998</v>
       </c>
       <c r="J26">
-        <v>6.1469589999999998</v>
+        <v>2.9820150000000001</v>
       </c>
       <c r="K26">
-        <v>2.9820150000000001</v>
+        <v>2.9503780000000002</v>
       </c>
       <c r="L26">
-        <v>2.9503780000000002</v>
-      </c>
-      <c r="M26">
         <v>2.6583350000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>76</v>
       </c>
@@ -1870,13 +1792,13 @@
         <v>78</v>
       </c>
       <c r="G27">
-        <v>3.7741859999999998</v>
+        <v>2.2518150000000001</v>
       </c>
       <c r="H27">
-        <v>2.2518150000000001</v>
+        <v>0.80297499999999999</v>
       </c>
       <c r="I27">
-        <v>0.80297499999999999</v>
+        <v>0.82348200000000005</v>
       </c>
       <c r="J27">
         <v>0.82348200000000005</v>
@@ -1885,13 +1807,10 @@
         <v>0.82348200000000005</v>
       </c>
       <c r="L27">
-        <v>0.82348200000000005</v>
-      </c>
-      <c r="M27">
         <v>6.1859999999999998E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>79</v>
       </c>
@@ -1911,28 +1830,25 @@
         <v>78</v>
       </c>
       <c r="G28">
-        <v>3.427956</v>
+        <v>2.1562670000000002</v>
       </c>
       <c r="H28">
-        <v>2.1562670000000002</v>
+        <v>0.76642399999999999</v>
       </c>
       <c r="I28">
-        <v>0.76642399999999999</v>
+        <v>0.77971599999999996</v>
       </c>
       <c r="J28">
         <v>0.77971599999999996</v>
       </c>
       <c r="K28">
-        <v>0.77971599999999996</v>
+        <v>0.123969</v>
       </c>
       <c r="L28">
         <v>0.123969</v>
       </c>
-      <c r="M28">
-        <v>0.123969</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -1952,7 +1868,7 @@
         <v>17</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -1969,11 +1885,8 @@
       <c r="L29">
         <v>0</v>
       </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>83</v>
       </c>
@@ -2010,11 +1923,8 @@
       <c r="L30">
         <v>2</v>
       </c>
-      <c r="M30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>85</v>
       </c>
@@ -2051,11 +1961,8 @@
       <c r="L31">
         <v>1</v>
       </c>
-      <c r="M31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>87</v>
       </c>
@@ -2075,28 +1982,25 @@
         <v>64</v>
       </c>
       <c r="G32">
-        <v>5.2449680000000001</v>
+        <v>4.9861399999999998</v>
       </c>
       <c r="H32">
-        <v>4.9861399999999998</v>
+        <v>4.7249619999999997</v>
       </c>
       <c r="I32">
-        <v>4.7249619999999997</v>
+        <v>4.7253480000000003</v>
       </c>
       <c r="J32">
-        <v>4.7253480000000003</v>
+        <v>4.7106519999999996</v>
       </c>
       <c r="K32">
-        <v>4.7106519999999996</v>
+        <v>4.6164329999999998</v>
       </c>
       <c r="L32">
-        <v>4.6164329999999998</v>
-      </c>
-      <c r="M32">
         <v>4.5683540000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>89</v>
       </c>
@@ -2133,11 +2037,8 @@
       <c r="L33">
         <v>3</v>
       </c>
-      <c r="M33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>91</v>
       </c>
@@ -2157,28 +2058,25 @@
         <v>93</v>
       </c>
       <c r="G34">
-        <v>3.684787</v>
+        <v>5.495031</v>
       </c>
       <c r="H34">
-        <v>5.495031</v>
+        <v>5.6463419999999998</v>
       </c>
       <c r="I34">
-        <v>5.6463419999999998</v>
+        <v>5.4485900000000003</v>
       </c>
       <c r="J34">
-        <v>5.4485900000000003</v>
+        <v>5.591437</v>
       </c>
       <c r="K34">
-        <v>5.591437</v>
+        <v>5.2120620000000004</v>
       </c>
       <c r="L34">
-        <v>5.2120620000000004</v>
-      </c>
-      <c r="M34">
         <v>5.5154509999999997</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>94</v>
       </c>
@@ -2198,25 +2096,22 @@
         <v>97</v>
       </c>
       <c r="G35">
-        <v>3.3916050000000002</v>
+        <v>3.2276189999999998</v>
       </c>
       <c r="H35">
-        <v>3.2276189999999998</v>
+        <v>2.4692959999999999</v>
       </c>
       <c r="I35">
-        <v>2.4692959999999999</v>
+        <v>1.356257</v>
       </c>
       <c r="J35">
-        <v>1.356257</v>
+        <v>0.93005499999999997</v>
       </c>
       <c r="K35">
-        <v>0.93005499999999997</v>
-      </c>
-      <c r="L35">
         <v>1.035577</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>98</v>
       </c>
@@ -2236,28 +2131,25 @@
         <v>100</v>
       </c>
       <c r="G36">
-        <v>9.0773100000000007</v>
+        <v>4.0542920000000002</v>
       </c>
       <c r="H36">
-        <v>4.0542920000000002</v>
+        <v>4.1736880000000003</v>
       </c>
       <c r="I36">
-        <v>4.1736880000000003</v>
+        <v>4.0166820000000003</v>
       </c>
       <c r="J36">
-        <v>4.0166820000000003</v>
+        <v>2.787814</v>
       </c>
       <c r="K36">
-        <v>2.787814</v>
+        <v>2.6361270000000001</v>
       </c>
       <c r="L36">
-        <v>2.6361270000000001</v>
-      </c>
-      <c r="M36">
         <v>2.5817969999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>101</v>
       </c>
@@ -2277,28 +2169,25 @@
         <v>103</v>
       </c>
       <c r="G37">
-        <v>3.9393180000000001</v>
+        <v>3.3854169999999999</v>
       </c>
       <c r="H37">
-        <v>3.3854169999999999</v>
+        <v>3.2279879999999999</v>
       </c>
       <c r="I37">
-        <v>3.2279879999999999</v>
+        <v>3.1649509999999998</v>
       </c>
       <c r="J37">
-        <v>3.1649509999999998</v>
+        <v>3.2684470000000001</v>
       </c>
       <c r="K37">
-        <v>3.2684470000000001</v>
+        <v>2.3455249999999999</v>
       </c>
       <c r="L37">
-        <v>2.3455249999999999</v>
-      </c>
-      <c r="M37">
         <v>2.1639900000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>104</v>
       </c>
@@ -2318,28 +2207,25 @@
         <v>106</v>
       </c>
       <c r="G38">
-        <v>2.716485</v>
+        <v>2.8432680000000001</v>
       </c>
       <c r="H38">
-        <v>2.8432680000000001</v>
+        <v>2.9682309999999998</v>
       </c>
       <c r="I38">
-        <v>2.9682309999999998</v>
+        <v>2.802905</v>
       </c>
       <c r="J38">
-        <v>2.802905</v>
+        <v>2.6689729999999998</v>
       </c>
       <c r="K38">
-        <v>2.6689729999999998</v>
+        <v>2.6510690000000001</v>
       </c>
       <c r="L38">
-        <v>2.6510690000000001</v>
-      </c>
-      <c r="M38">
         <v>2.1388859999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>107</v>
       </c>
@@ -2359,13 +2245,13 @@
         <v>35</v>
       </c>
       <c r="G39">
-        <v>0.75958099999999995</v>
+        <v>0.42900300000000002</v>
       </c>
       <c r="H39">
-        <v>0.42900300000000002</v>
+        <v>4.9761E-2</v>
       </c>
       <c r="I39">
-        <v>4.9761E-2</v>
+        <v>0</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2376,11 +2262,8 @@
       <c r="L39">
         <v>0</v>
       </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>109</v>
       </c>
@@ -2403,13 +2286,10 @@
         <v>2.5593360000000001</v>
       </c>
       <c r="H40">
-        <v>2.5593360000000001</v>
-      </c>
-      <c r="I40">
         <v>1.144245</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>111</v>
       </c>
@@ -2429,28 +2309,25 @@
         <v>17</v>
       </c>
       <c r="G41">
-        <v>4.8062050000000003</v>
+        <v>4.998456</v>
       </c>
       <c r="H41">
-        <v>4.998456</v>
+        <v>4.8982910000000004</v>
       </c>
       <c r="I41">
-        <v>4.8982910000000004</v>
+        <v>4.8948099999999997</v>
       </c>
       <c r="J41">
-        <v>4.8948099999999997</v>
+        <v>5.6299539999999997</v>
       </c>
       <c r="K41">
-        <v>5.6299539999999997</v>
+        <v>5.5519309999999997</v>
       </c>
       <c r="L41">
-        <v>5.5519309999999997</v>
-      </c>
-      <c r="M41">
         <v>5.5320790000000004</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>113</v>
       </c>
@@ -2470,28 +2347,25 @@
         <v>14</v>
       </c>
       <c r="G42">
-        <v>3.946259</v>
+        <v>3.9362699999999999</v>
       </c>
       <c r="H42">
-        <v>3.9362699999999999</v>
+        <v>3.8945630000000002</v>
       </c>
       <c r="I42">
-        <v>3.8945630000000002</v>
+        <v>3.9245220000000001</v>
       </c>
       <c r="J42">
-        <v>3.9245220000000001</v>
+        <v>3.885729</v>
       </c>
       <c r="K42">
-        <v>3.885729</v>
+        <v>3.8568319999999998</v>
       </c>
       <c r="L42">
-        <v>3.8568319999999998</v>
-      </c>
-      <c r="M42">
         <v>3.8525700000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>115</v>
       </c>
@@ -2511,16 +2385,16 @@
         <v>78</v>
       </c>
       <c r="G43">
-        <v>3.6098319999999999</v>
+        <v>2.23427</v>
       </c>
       <c r="H43">
-        <v>2.23427</v>
+        <v>0.85933599999999999</v>
       </c>
       <c r="I43">
-        <v>0.85933599999999999</v>
+        <v>0.77959100000000003</v>
       </c>
       <c r="J43">
-        <v>0.77959100000000003</v>
+        <v>3.7138999999999998E-2</v>
       </c>
       <c r="K43">
         <v>3.7138999999999998E-2</v>
@@ -2528,11 +2402,8 @@
       <c r="L43">
         <v>3.7138999999999998E-2</v>
       </c>
-      <c r="M43">
-        <v>3.7138999999999998E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>117</v>
       </c>
@@ -2552,28 +2423,25 @@
         <v>11</v>
       </c>
       <c r="G44">
-        <v>5.9977679999999998</v>
+        <v>6.0000939999999998</v>
       </c>
       <c r="H44">
-        <v>6.0000939999999998</v>
+        <v>5.0007650000000003</v>
       </c>
       <c r="I44">
-        <v>5.0007650000000003</v>
+        <v>4.5674400000000004</v>
       </c>
       <c r="J44">
-        <v>4.5674400000000004</v>
+        <v>5.6736319999999996</v>
       </c>
       <c r="K44">
-        <v>5.6736319999999996</v>
+        <v>5.2049700000000003</v>
       </c>
       <c r="L44">
-        <v>5.2049700000000003</v>
-      </c>
-      <c r="M44">
         <v>5.132854</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>119</v>
       </c>
@@ -2610,11 +2478,8 @@
       <c r="L45">
         <v>1.5</v>
       </c>
-      <c r="M45">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>121</v>
       </c>
@@ -2634,16 +2499,16 @@
         <v>25</v>
       </c>
       <c r="G46">
-        <v>0.81289999999999996</v>
+        <v>0.43083900000000003</v>
       </c>
       <c r="H46">
         <v>0.43083900000000003</v>
       </c>
       <c r="I46">
-        <v>0.43083900000000003</v>
+        <v>0.46543699999999999</v>
       </c>
       <c r="J46">
-        <v>0.46543699999999999</v>
+        <v>0.32457599999999998</v>
       </c>
       <c r="K46">
         <v>0.32457599999999998</v>
@@ -2651,11 +2516,8 @@
       <c r="L46">
         <v>0.32457599999999998</v>
       </c>
-      <c r="M46">
-        <v>0.32457599999999998</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>123</v>
       </c>
@@ -2675,28 +2537,25 @@
         <v>103</v>
       </c>
       <c r="G47">
-        <v>4.9229630000000002</v>
+        <v>4.9193429999999996</v>
       </c>
       <c r="H47">
-        <v>4.9193429999999996</v>
+        <v>5.0951919999999999</v>
       </c>
       <c r="I47">
-        <v>5.0951919999999999</v>
+        <v>4.9282190000000003</v>
       </c>
       <c r="J47">
-        <v>4.9282190000000003</v>
+        <v>4.3670999999999998</v>
       </c>
       <c r="K47">
-        <v>4.3670999999999998</v>
+        <v>4.276751</v>
       </c>
       <c r="L47">
-        <v>4.276751</v>
-      </c>
-      <c r="M47">
         <v>3.7193960000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>125</v>
       </c>
@@ -2716,28 +2575,25 @@
         <v>47</v>
       </c>
       <c r="G48">
-        <v>4.627999</v>
+        <v>4.5977079999999999</v>
       </c>
       <c r="H48">
-        <v>4.5977079999999999</v>
+        <v>3.5681180000000001</v>
       </c>
       <c r="I48">
-        <v>3.5681180000000001</v>
+        <v>3.5589970000000002</v>
       </c>
       <c r="J48">
-        <v>3.5589970000000002</v>
+        <v>2.7356590000000001</v>
       </c>
       <c r="K48">
-        <v>2.7356590000000001</v>
+        <v>3.1920000000000002</v>
       </c>
       <c r="L48">
-        <v>3.1920000000000002</v>
-      </c>
-      <c r="M48">
         <v>3.0293890000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>127</v>
       </c>
@@ -2757,28 +2613,25 @@
         <v>129</v>
       </c>
       <c r="G49">
-        <v>3.0541749999999999</v>
+        <v>3.1476120000000001</v>
       </c>
       <c r="H49">
-        <v>3.1476120000000001</v>
+        <v>1.7460199999999999</v>
       </c>
       <c r="I49">
-        <v>1.7460199999999999</v>
+        <v>1.545536</v>
       </c>
       <c r="J49">
-        <v>1.545536</v>
+        <v>1.577577</v>
       </c>
       <c r="K49">
-        <v>1.577577</v>
+        <v>1.5446789999999999</v>
       </c>
       <c r="L49">
-        <v>1.5446789999999999</v>
-      </c>
-      <c r="M49">
         <v>1.564568</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>130</v>
       </c>
@@ -2798,24 +2651,21 @@
         <v>132</v>
       </c>
       <c r="G50">
-        <v>5.0079890000000002</v>
+        <v>4.9694940000000001</v>
       </c>
       <c r="H50">
-        <v>4.9694940000000001</v>
+        <v>2.4982669999999998</v>
       </c>
       <c r="I50">
-        <v>2.4982669999999998</v>
+        <v>3</v>
       </c>
       <c r="J50">
-        <v>3</v>
+        <v>1.5090319999999999</v>
       </c>
       <c r="K50">
         <v>1.5090319999999999</v>
       </c>
       <c r="L50">
-        <v>1.5090319999999999</v>
-      </c>
-      <c r="M50">
         <v>1.5090319999999999</v>
       </c>
     </row>
